--- a/data/trans_camb/P0902-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,43</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>18,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,93</t>
+          <t>16,22</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,37; 16,49</t>
+          <t>7,86; 16,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,46; 23,31</t>
+          <t>14,99; 22,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 19,79</t>
+          <t>13,81; 19,2</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,1%</t>
+          <t>77,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>81,99%</t>
+          <t>79,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>84,8%</t>
+          <t>81,23%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,03; 117,49</t>
+          <t>44,98; 114,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,86; 106,92</t>
+          <t>59,37; 104,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,17; 103,68</t>
+          <t>66,05; 100,37</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>4,01</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,68</t>
+          <t>1,46; 6,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,47</t>
+          <t>-0,49; 5,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 6,65</t>
+          <t>1,91; 5,85</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>116,57%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>57,12%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,86; 183,55</t>
+          <t>31,32; 154,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 78,97</t>
+          <t>-3,87; 65,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,39; 106,11</t>
+          <t>26,89; 90,39</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,36</t>
+          <t>0,96; 6,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,77</t>
+          <t>-2,86; 3,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,54</t>
+          <t>0,07; 4,47</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>82,9%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>37,84%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,72; 203,61</t>
+          <t>14,39; 203,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 58,54</t>
+          <t>-27,71; 58,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 90,45</t>
+          <t>0,08; 89,32</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,18</t>
+          <t>0,89; 5,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,38</t>
+          <t>-0,16; 5,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,93</t>
+          <t>1,55; 4,94</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>45,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>31,46%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,7; 81,07</t>
+          <t>11,06; 70,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,82; 46,13</t>
+          <t>-0,63; 38,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,24; 54,46</t>
+          <t>13,36; 45,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P0902-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,94</t>
+          <t>4,03; 10,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,97</t>
+          <t>1,2; 8,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,86; 16,08</t>
+          <t>7,9; 16,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,61</t>
+          <t>8,51; 15,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,25</t>
+          <t>7,78; 15,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 22,66</t>
+          <t>14,99; 22,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 12,9</t>
+          <t>7,61; 12,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,37</t>
+          <t>6,13; 11,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,81; 19,2</t>
+          <t>13,42; 18,9</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,14; 87,36</t>
+          <t>23,41; 75,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 63,01</t>
+          <t>6,48; 60,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,98; 114,31</t>
+          <t>46,24; 118,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,53; 72,06</t>
+          <t>34,18; 72,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,62; 69,84</t>
+          <t>31,16; 72,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,37; 104,17</t>
+          <t>59,77; 101,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,44; 68,48</t>
+          <t>36,37; 66,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,66; 60,24</t>
+          <t>28,57; 62,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,05; 100,37</t>
+          <t>63,66; 101,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,67</t>
+          <t>-0,26; 2,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,83</t>
+          <t>-0,11; 2,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,55</t>
+          <t>1,36; 6,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,39</t>
+          <t>0,0; 4,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,42</t>
+          <t>0,24; 4,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,52</t>
+          <t>-0,83; 5,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,05</t>
+          <t>0,23; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,1</t>
+          <t>0,55; 3,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,85</t>
+          <t>1,67; 5,57</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 62,28</t>
+          <t>-4,89; 64,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 67,48</t>
+          <t>-3,24; 67,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,32; 154,07</t>
+          <t>28,92; 149,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 50,44</t>
+          <t>0,04; 50,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 53,21</t>
+          <t>2,06; 54,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 65,12</t>
+          <t>-6,08; 67,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 46,95</t>
+          <t>2,82; 45,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 47,76</t>
+          <t>7,46; 47,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,89; 90,39</t>
+          <t>23,46; 86,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,23</t>
+          <t>-1,19; 4,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,59</t>
+          <t>-2,3; 3,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 6,18</t>
+          <t>0,49; 6,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,99</t>
+          <t>-4,49; 2,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,55</t>
+          <t>-3,09; 4,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,73</t>
+          <t>-2,92; 3,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,97</t>
+          <t>-1,96; 2,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,06</t>
+          <t>-1,4; 3,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,47</t>
+          <t>0,31; 4,21</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 173,38</t>
+          <t>-26,64; 167,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 120,15</t>
+          <t>-40,12; 107,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,39; 203,82</t>
+          <t>3,91; 210,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 43,33</t>
+          <t>-44,44; 44,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 70,22</t>
+          <t>-31,61; 70,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 58,11</t>
+          <t>-27,42; 59,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 61,17</t>
+          <t>-27,29; 52,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 62,17</t>
+          <t>-21,03; 67,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 89,32</t>
+          <t>4,02; 85,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,39</t>
+          <t>1,35; 4,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,46</t>
+          <t>-0,29; 2,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,45</t>
+          <t>1,17; 5,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,07</t>
+          <t>3,47; 7,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,95</t>
+          <t>1,39; 4,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 5,36</t>
+          <t>-0,01; 5,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,25</t>
+          <t>3,01; 5,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,24</t>
+          <t>0,96; 3,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,94</t>
+          <t>1,56; 5,08</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,71; 58,07</t>
+          <t>15,58; 57,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 32,76</t>
+          <t>-3,17; 33,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,06; 70,47</t>
+          <t>13,36; 72,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,76; 50,85</t>
+          <t>22,78; 52,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,01; 35,78</t>
+          <t>8,99; 34,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 38,77</t>
+          <t>0,33; 37,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,6; 48,12</t>
+          <t>24,97; 48,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,72; 29,49</t>
+          <t>7,9; 28,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,36; 45,07</t>
+          <t>13,81; 46,18</t>
         </is>
       </c>
     </row>
